--- a/public/templates/final_exam_submission_template.xlsx
+++ b/public/templates/final_exam_submission_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darlington/Documents/projects/intranent-gql-server/public/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C923B7-1C04-B344-B319-3DB6A2827A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C594CD3-C13C-F847-9E3E-48C7E535B82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{BD9D2522-8726-AE44-BB85-A68BD0F0BC8F}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16120" xr2:uid="{BD9D2522-8726-AE44-BB85-A68BD0F0BC8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,28 +35,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>final_exam_mark</t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>stdno</t>
   </si>
   <si>
     <t>200010--</t>
+  </si>
+  <si>
+    <t>regno</t>
+  </si>
+  <si>
+    <t>module_code</t>
+  </si>
+  <si>
+    <t>2022/BCS/---</t>
+  </si>
+  <si>
+    <t>BIST008</t>
+  </si>
+  <si>
+    <t>exam_marks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -82,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,31 +415,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BC051F-C31A-A44D-BD6D-E01B881C55C1}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>80</v>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
